--- a/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_11_16.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_11_16.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-6521.992908525175</v>
+        <v>-9085.013244429876</v>
       </c>
     </row>
     <row r="7">
@@ -656,25 +656,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>65.04612369060216</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>6.876045741711437</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>391.9516743100735</v>
       </c>
       <c r="H2" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>65.70991267247049</v>
@@ -707,13 +707,13 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>206.6581849802338</v>
       </c>
       <c r="U2" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -756,7 +756,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I3" t="n">
-        <v>20.22295923705013</v>
+        <v>20.22295923705015</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -814,25 +814,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>98.07879154718619</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>147.2515091551288</v>
+        <v>70.63208010638127</v>
       </c>
       <c r="I4" t="n">
         <v>104.7965952039006</v>
@@ -862,10 +862,10 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S4" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -880,7 +880,7 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -896,25 +896,25 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>246.3360745058902</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>333.4975747857435</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H5" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>65.70991267247049</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,13 +944,13 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -959,7 +959,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -993,7 +993,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I6" t="n">
-        <v>20.22295923705013</v>
+        <v>20.22295923705015</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1054,10 +1054,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>147.8163290329186</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
@@ -1066,13 +1066,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1114,13 +1114,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>225.44628651614</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1130,28 +1130,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>145.4887626273891</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>330.870720160955</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
         <v>411.547702772954</v>
       </c>
       <c r="H8" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>65.70991267247049</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,22 +1181,22 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>206.6581849802338</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -1230,7 +1230,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I9" t="n">
-        <v>20.22295923705013</v>
+        <v>20.22295923705015</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1288,16 +1288,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>75.91906748262203</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
@@ -1306,10 +1306,10 @@
         <v>166.3066000448042</v>
       </c>
       <c r="H10" t="n">
-        <v>147.2515091551288</v>
+        <v>147.2515091551289</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1339,22 +1339,22 @@
         <v>101.5575724195736</v>
       </c>
       <c r="S10" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>180.842194765488</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1382,7 +1382,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>409.803338518787</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H11" t="n">
         <v>283.1540821444137</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1540,13 +1540,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>72.26558381699969</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,13 +1573,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>90.14863908058098</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -1604,7 +1604,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C14" t="n">
         <v>365.2728917710076</v>
@@ -1622,7 +1622,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H14" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1762,7 +1762,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>69.82863813027318</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
@@ -1777,7 +1777,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>91.89996056624759</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1813,10 +1813,10 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>286.1844743892441</v>
@@ -2011,7 +2011,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>165.5241382922688</v>
@@ -2020,7 +2020,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,10 +2047,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -2062,13 +2062,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>105.9893107373038</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>150.0868108027809</v>
       </c>
     </row>
     <row r="20">
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2245,19 +2245,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>107.4021082756238</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2287,10 +2287,10 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>157.0680868942514</v>
       </c>
       <c r="U22" t="n">
         <v>286.1844743892441</v>
@@ -2482,13 +2482,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>95.81917536083697</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>140.2947128462239</v>
@@ -2536,7 +2536,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>216.8180354051593</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -2713,22 +2713,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2758,13 +2758,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>27.77749086859501</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>206.5509998577711</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
         <v>286.1844743892441</v>
@@ -2953,7 +2953,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
@@ -2968,7 +2968,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,19 +2995,19 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>86.90598908794061</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>139.1584054594684</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
@@ -3190,7 +3190,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>15.9345014072213</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -3202,7 +3202,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3232,10 +3232,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
-        <v>36.4306205949047</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
         <v>217.4054503272883</v>
@@ -3253,7 +3253,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3320,7 +3320,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U35" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881293</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -3424,25 +3424,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>123.9815576456783</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,16 +3469,16 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
-        <v>240.3363440419458</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -3557,7 +3557,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U38" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881293</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
@@ -3664,10 +3664,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -3679,7 +3679,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>0.619705459988987</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3715,13 +3715,13 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
-        <v>286.1844743892441</v>
+        <v>147.6895341487369</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
@@ -3740,7 +3740,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>365.2728917710071</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
         <v>354.683041620683</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3895,28 +3895,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>95.57362600055878</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>55.52079624060383</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4138,7 +4138,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
@@ -4150,10 +4150,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,16 +4180,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>38.61213096654814</v>
       </c>
       <c r="S46" t="n">
-        <v>172.0260335000785</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1249.079005265436</v>
+        <v>1240.759433410664</v>
       </c>
       <c r="C2" t="n">
-        <v>880.1164883250246</v>
+        <v>871.7969164702527</v>
       </c>
       <c r="D2" t="n">
-        <v>814.4133330819922</v>
+        <v>513.5312178635022</v>
       </c>
       <c r="E2" t="n">
-        <v>428.6250804837479</v>
+        <v>513.5312178635022</v>
       </c>
       <c r="F2" t="n">
-        <v>421.6795797345445</v>
+        <v>513.5312178635022</v>
       </c>
       <c r="G2" t="n">
-        <v>421.6795797345445</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="H2" t="n">
         <v>117.6204357321147</v>
       </c>
       <c r="I2" t="n">
-        <v>51.24678656800312</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J2" t="n">
-        <v>187.5281822362822</v>
+        <v>187.5281822362817</v>
       </c>
       <c r="K2" t="n">
-        <v>442.5171852816088</v>
+        <v>442.5171852816086</v>
       </c>
       <c r="L2" t="n">
-        <v>795.7553530872924</v>
+        <v>795.7553530872917</v>
       </c>
       <c r="M2" t="n">
-        <v>1220.470313923563</v>
+        <v>1220.470313923562</v>
       </c>
       <c r="N2" t="n">
-        <v>1656.671415230818</v>
+        <v>1656.671415230817</v>
       </c>
       <c r="O2" t="n">
-        <v>2055.228484740841</v>
+        <v>2055.22848474084</v>
       </c>
       <c r="P2" t="n">
-        <v>2360.886721764998</v>
+        <v>2360.886721764997</v>
       </c>
       <c r="Q2" t="n">
-        <v>2542.250581723851</v>
+        <v>2542.25058172385</v>
       </c>
       <c r="R2" t="n">
-        <v>2562.339328400156</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S2" t="n">
-        <v>2437.640120926626</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="T2" t="n">
-        <v>2228.894479532451</v>
+        <v>2353.59368700598</v>
       </c>
       <c r="U2" t="n">
-        <v>1975.31341879663</v>
+        <v>2353.59368700598</v>
       </c>
       <c r="V2" t="n">
-        <v>1975.31341879663</v>
+        <v>2353.59368700598</v>
       </c>
       <c r="W2" t="n">
-        <v>1622.544763526516</v>
+        <v>2000.825031735866</v>
       </c>
       <c r="X2" t="n">
-        <v>1249.079005265436</v>
+        <v>1627.359273474786</v>
       </c>
       <c r="Y2" t="n">
-        <v>1249.079005265436</v>
+        <v>1627.359273474786</v>
       </c>
     </row>
     <row r="3">
@@ -4389,13 +4389,13 @@
         <v>756.8511118155114</v>
       </c>
       <c r="D3" t="n">
-        <v>607.9167021542603</v>
+        <v>607.9167021542601</v>
       </c>
       <c r="E3" t="n">
-        <v>448.6792471488047</v>
+        <v>448.6792471488045</v>
       </c>
       <c r="F3" t="n">
-        <v>302.1446891756898</v>
+        <v>302.1446891756896</v>
       </c>
       <c r="G3" t="n">
         <v>165.443278618252</v>
@@ -4404,34 +4404,34 @@
         <v>71.67401812057901</v>
       </c>
       <c r="I3" t="n">
-        <v>51.24678656800312</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J3" t="n">
-        <v>113.5972052500114</v>
+        <v>143.6627691908473</v>
       </c>
       <c r="K3" t="n">
-        <v>298.3188265310613</v>
+        <v>590.2049751143501</v>
       </c>
       <c r="L3" t="n">
-        <v>932.4978103100999</v>
+        <v>884.9085321458217</v>
       </c>
       <c r="M3" t="n">
-        <v>1295.75982926932</v>
+        <v>1248.170551105042</v>
       </c>
       <c r="N3" t="n">
-        <v>1683.044957866265</v>
+        <v>1635.455679701987</v>
       </c>
       <c r="O3" t="n">
-        <v>2015.115393042427</v>
+        <v>1967.526114878149</v>
       </c>
       <c r="P3" t="n">
-        <v>2262.298126874724</v>
+        <v>2214.708848710446</v>
       </c>
       <c r="Q3" t="n">
-        <v>2562.339328400156</v>
+        <v>2538.001278676482</v>
       </c>
       <c r="R3" t="n">
-        <v>2562.339328400156</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S3" t="n">
         <v>2426.617474780096</v>
@@ -4440,7 +4440,7 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U3" t="n">
-        <v>2004.520742047138</v>
+        <v>2004.520742047137</v>
       </c>
       <c r="V3" t="n">
         <v>1769.368633815395</v>
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>701.9169046966489</v>
+        <v>1768.196540445805</v>
       </c>
       <c r="C4" t="n">
-        <v>701.9169046966489</v>
+        <v>1599.260357517898</v>
       </c>
       <c r="D4" t="n">
-        <v>551.8002652843131</v>
+        <v>1449.143718105563</v>
       </c>
       <c r="E4" t="n">
-        <v>551.8002652843131</v>
+        <v>1301.23062452317</v>
       </c>
       <c r="F4" t="n">
-        <v>404.9103177864027</v>
+        <v>1154.34067702526</v>
       </c>
       <c r="G4" t="n">
-        <v>305.8408313751036</v>
+        <v>1154.34067702526</v>
       </c>
       <c r="H4" t="n">
-        <v>157.1019332386098</v>
+        <v>1082.995141564268</v>
       </c>
       <c r="I4" t="n">
-        <v>51.24678656800312</v>
+        <v>977.1399948936618</v>
       </c>
       <c r="J4" t="n">
-        <v>76.71595955312199</v>
+        <v>1002.609167878781</v>
       </c>
       <c r="K4" t="n">
-        <v>248.4064713020475</v>
+        <v>1174.299679627706</v>
       </c>
       <c r="L4" t="n">
-        <v>523.6376499693234</v>
+        <v>1449.530858294982</v>
       </c>
       <c r="M4" t="n">
-        <v>824.2194607096587</v>
+        <v>1750.112669035317</v>
       </c>
       <c r="N4" t="n">
-        <v>1123.088724245823</v>
+        <v>2048.981932571481</v>
       </c>
       <c r="O4" t="n">
-        <v>1383.126566999035</v>
+        <v>2309.019775324693</v>
       </c>
       <c r="P4" t="n">
-        <v>1582.113182171024</v>
+        <v>2508.006390496682</v>
       </c>
       <c r="Q4" t="n">
-        <v>1636.446120074497</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="R4" t="n">
-        <v>1636.446120074497</v>
+        <v>2459.755921915737</v>
       </c>
       <c r="S4" t="n">
-        <v>1439.817372234359</v>
+        <v>2459.755921915737</v>
       </c>
       <c r="T4" t="n">
-        <v>1439.817372234359</v>
+        <v>2459.755921915737</v>
       </c>
       <c r="U4" t="n">
-        <v>1150.699034738196</v>
+        <v>2170.637584419575</v>
       </c>
       <c r="V4" t="n">
-        <v>1150.699034738196</v>
+        <v>2170.637584419575</v>
       </c>
       <c r="W4" t="n">
-        <v>1150.699034738196</v>
+        <v>2170.637584419575</v>
       </c>
       <c r="X4" t="n">
-        <v>922.709483840179</v>
+        <v>2170.637584419575</v>
       </c>
       <c r="Y4" t="n">
-        <v>701.9169046966489</v>
+        <v>1949.845005276045</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1878.507785786471</v>
+        <v>1126.761759316039</v>
       </c>
       <c r="C5" t="n">
-        <v>1509.545268846059</v>
+        <v>1126.761759316039</v>
       </c>
       <c r="D5" t="n">
-        <v>1151.279570239309</v>
+        <v>1126.761759316039</v>
       </c>
       <c r="E5" t="n">
-        <v>765.4913176410646</v>
+        <v>877.9374416333218</v>
       </c>
       <c r="F5" t="n">
-        <v>758.5458168918611</v>
+        <v>466.9515368437142</v>
       </c>
       <c r="G5" t="n">
-        <v>421.6795797345445</v>
+        <v>51.24678656800308</v>
       </c>
       <c r="H5" t="n">
-        <v>117.6204357321147</v>
+        <v>51.24678656800308</v>
       </c>
       <c r="I5" t="n">
-        <v>51.24678656800312</v>
+        <v>51.24678656800308</v>
       </c>
       <c r="J5" t="n">
-        <v>187.5281822362824</v>
+        <v>187.5281822362817</v>
       </c>
       <c r="K5" t="n">
-        <v>442.5171852816086</v>
+        <v>442.517185281608</v>
       </c>
       <c r="L5" t="n">
-        <v>795.7553530872917</v>
+        <v>795.7553530872913</v>
       </c>
       <c r="M5" t="n">
-        <v>1220.470313923562</v>
+        <v>1220.470313923561</v>
       </c>
       <c r="N5" t="n">
-        <v>1656.671415230818</v>
+        <v>1656.671415230816</v>
       </c>
       <c r="O5" t="n">
-        <v>2055.22848474084</v>
+        <v>2055.228484740839</v>
       </c>
       <c r="P5" t="n">
-        <v>2360.886721764998</v>
+        <v>2360.886721764996</v>
       </c>
       <c r="Q5" t="n">
-        <v>2542.250581723851</v>
+        <v>2542.250581723849</v>
       </c>
       <c r="R5" t="n">
-        <v>2562.339328400156</v>
+        <v>2562.339328400154</v>
       </c>
       <c r="S5" t="n">
-        <v>2562.339328400156</v>
+        <v>2437.640120926624</v>
       </c>
       <c r="T5" t="n">
-        <v>2562.339328400156</v>
+        <v>2437.640120926624</v>
       </c>
       <c r="U5" t="n">
-        <v>2562.339328400156</v>
+        <v>2184.059060190804</v>
       </c>
       <c r="V5" t="n">
-        <v>2231.276441056585</v>
+        <v>1852.996172847233</v>
       </c>
       <c r="W5" t="n">
-        <v>1878.507785786471</v>
+        <v>1500.227517577119</v>
       </c>
       <c r="X5" t="n">
-        <v>1878.507785786471</v>
+        <v>1126.761759316039</v>
       </c>
       <c r="Y5" t="n">
-        <v>1878.507785786471</v>
+        <v>1126.761759316039</v>
       </c>
     </row>
     <row r="6">
@@ -4620,52 +4620,52 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>931.3041410966388</v>
+        <v>931.3041410966385</v>
       </c>
       <c r="C6" t="n">
-        <v>756.8511118155118</v>
+        <v>756.8511118155116</v>
       </c>
       <c r="D6" t="n">
-        <v>607.9167021542605</v>
+        <v>607.9167021542603</v>
       </c>
       <c r="E6" t="n">
-        <v>448.679247148805</v>
+        <v>448.6792471488048</v>
       </c>
       <c r="F6" t="n">
-        <v>302.1446891756899</v>
+        <v>302.1446891756898</v>
       </c>
       <c r="G6" t="n">
         <v>165.443278618252</v>
       </c>
       <c r="H6" t="n">
-        <v>71.67401812057901</v>
+        <v>71.67401812057899</v>
       </c>
       <c r="I6" t="n">
-        <v>51.24678656800312</v>
+        <v>51.24678656800308</v>
       </c>
       <c r="J6" t="n">
-        <v>238.4273302370161</v>
+        <v>113.5972052500113</v>
       </c>
       <c r="K6" t="n">
-        <v>423.148951518066</v>
+        <v>298.3188265310612</v>
       </c>
       <c r="L6" t="n">
-        <v>717.8525085495378</v>
+        <v>593.0223835625329</v>
       </c>
       <c r="M6" t="n">
-        <v>1081.114527508758</v>
+        <v>1227.201367341571</v>
       </c>
       <c r="N6" t="n">
-        <v>1468.399656105703</v>
+        <v>1614.486495938516</v>
       </c>
       <c r="O6" t="n">
-        <v>1800.470091281865</v>
+        <v>2199.840679460312</v>
       </c>
       <c r="P6" t="n">
-        <v>2214.708848710445</v>
+        <v>2447.023413292609</v>
       </c>
       <c r="Q6" t="n">
-        <v>2538.001278676482</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="R6" t="n">
         <v>2562.339328400155</v>
@@ -4677,7 +4677,7 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U6" t="n">
-        <v>2004.520742047138</v>
+        <v>2004.520742047137</v>
       </c>
       <c r="V6" t="n">
         <v>1769.368633815395</v>
@@ -4686,7 +4686,7 @@
         <v>1515.131277087193</v>
       </c>
       <c r="X6" t="n">
-        <v>1307.279776881661</v>
+        <v>1307.27977688166</v>
       </c>
       <c r="Y6" t="n">
         <v>1099.519478116707</v>
@@ -4699,49 +4699,49 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>751.3310369968233</v>
+        <v>682.9724752679349</v>
       </c>
       <c r="C7" t="n">
-        <v>602.021613731249</v>
+        <v>514.036292340028</v>
       </c>
       <c r="D7" t="n">
-        <v>451.9049743189132</v>
+        <v>514.036292340028</v>
       </c>
       <c r="E7" t="n">
-        <v>303.9918807365201</v>
+        <v>366.1231987576348</v>
       </c>
       <c r="F7" t="n">
-        <v>157.1019332386098</v>
+        <v>219.2332512597245</v>
       </c>
       <c r="G7" t="n">
-        <v>157.1019332386098</v>
+        <v>51.24678656800308</v>
       </c>
       <c r="H7" t="n">
-        <v>157.1019332386098</v>
+        <v>51.24678656800308</v>
       </c>
       <c r="I7" t="n">
-        <v>51.24678656800312</v>
+        <v>51.24678656800308</v>
       </c>
       <c r="J7" t="n">
-        <v>76.71595955312199</v>
+        <v>76.71595955312195</v>
       </c>
       <c r="K7" t="n">
         <v>248.4064713020475</v>
       </c>
       <c r="L7" t="n">
-        <v>523.6376499693234</v>
+        <v>523.6376499693233</v>
       </c>
       <c r="M7" t="n">
-        <v>824.2194607096587</v>
+        <v>824.2194607096585</v>
       </c>
       <c r="N7" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O7" t="n">
-        <v>1383.126566999035</v>
+        <v>1383.126566999034</v>
       </c>
       <c r="P7" t="n">
-        <v>1582.113182171024</v>
+        <v>1582.113182171023</v>
       </c>
       <c r="Q7" t="n">
         <v>1636.446120074497</v>
@@ -4762,13 +4762,13 @@
         <v>1381.76163186861</v>
       </c>
       <c r="W7" t="n">
-        <v>1381.76163186861</v>
+        <v>1092.344461831649</v>
       </c>
       <c r="X7" t="n">
-        <v>1153.772080970593</v>
+        <v>864.6209400981746</v>
       </c>
       <c r="Y7" t="n">
-        <v>932.979501827063</v>
+        <v>864.6209400981746</v>
       </c>
     </row>
     <row r="8">
@@ -4778,25 +4778,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1171.597178657685</v>
+        <v>1621.991392838317</v>
       </c>
       <c r="C8" t="n">
-        <v>1171.597178657685</v>
+        <v>1621.991392838317</v>
       </c>
       <c r="D8" t="n">
-        <v>1171.597178657685</v>
+        <v>1263.725694231566</v>
       </c>
       <c r="E8" t="n">
-        <v>1171.597178657685</v>
+        <v>877.9374416333219</v>
       </c>
       <c r="F8" t="n">
-        <v>837.3843300102556</v>
+        <v>466.9515368437143</v>
       </c>
       <c r="G8" t="n">
-        <v>421.6795797345444</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="H8" t="n">
-        <v>117.6204357321147</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="I8" t="n">
         <v>51.2467865680031</v>
@@ -4805,10 +4805,10 @@
         <v>187.5281822362817</v>
       </c>
       <c r="K8" t="n">
-        <v>442.5171852816081</v>
+        <v>442.517185281608</v>
       </c>
       <c r="L8" t="n">
-        <v>795.7553530872914</v>
+        <v>795.7553530872913</v>
       </c>
       <c r="M8" t="n">
         <v>1220.470313923562</v>
@@ -4829,25 +4829,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S8" t="n">
-        <v>2437.640120926625</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="T8" t="n">
-        <v>2228.89447953245</v>
+        <v>2353.59368700598</v>
       </c>
       <c r="U8" t="n">
-        <v>2228.89447953245</v>
+        <v>2100.012626270159</v>
       </c>
       <c r="V8" t="n">
-        <v>1897.831592188879</v>
+        <v>1768.949738926588</v>
       </c>
       <c r="W8" t="n">
-        <v>1545.062936918765</v>
+        <v>1768.949738926588</v>
       </c>
       <c r="X8" t="n">
-        <v>1171.597178657685</v>
+        <v>1768.949738926588</v>
       </c>
       <c r="Y8" t="n">
-        <v>1171.597178657685</v>
+        <v>1768.949738926588</v>
       </c>
     </row>
     <row r="9">
@@ -4857,25 +4857,25 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>931.3041410966385</v>
+        <v>931.3041410966388</v>
       </c>
       <c r="C9" t="n">
-        <v>756.8511118155116</v>
+        <v>756.8511118155118</v>
       </c>
       <c r="D9" t="n">
-        <v>607.9167021542603</v>
+        <v>607.9167021542605</v>
       </c>
       <c r="E9" t="n">
-        <v>448.6792471488048</v>
+        <v>448.679247148805</v>
       </c>
       <c r="F9" t="n">
-        <v>302.1446891756898</v>
+        <v>302.1446891756899</v>
       </c>
       <c r="G9" t="n">
         <v>165.443278618252</v>
       </c>
       <c r="H9" t="n">
-        <v>71.67401812057899</v>
+        <v>71.67401812057901</v>
       </c>
       <c r="I9" t="n">
         <v>51.2467865680031</v>
@@ -4884,22 +4884,22 @@
         <v>113.5972052500113</v>
       </c>
       <c r="K9" t="n">
-        <v>560.1394111735141</v>
+        <v>507.2413987429755</v>
       </c>
       <c r="L9" t="n">
-        <v>854.8429682049857</v>
+        <v>801.9449557744472</v>
       </c>
       <c r="M9" t="n">
-        <v>1218.104987164206</v>
+        <v>1165.206974733667</v>
       </c>
       <c r="N9" t="n">
-        <v>1605.390115761151</v>
+        <v>1552.492103330613</v>
       </c>
       <c r="O9" t="n">
-        <v>1937.460550937313</v>
+        <v>1884.562538506774</v>
       </c>
       <c r="P9" t="n">
-        <v>2239.046898434118</v>
+        <v>2447.023413292609</v>
       </c>
       <c r="Q9" t="n">
         <v>2562.339328400155</v>
@@ -4914,7 +4914,7 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U9" t="n">
-        <v>2004.520742047137</v>
+        <v>2004.520742047138</v>
       </c>
       <c r="V9" t="n">
         <v>1769.368633815395</v>
@@ -4923,7 +4923,7 @@
         <v>1515.131277087193</v>
       </c>
       <c r="X9" t="n">
-        <v>1307.27977688166</v>
+        <v>1307.279776881661</v>
       </c>
       <c r="Y9" t="n">
         <v>1099.519478116707</v>
@@ -4936,31 +4936,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>683.7982798220355</v>
+        <v>1016.455992655101</v>
       </c>
       <c r="C10" t="n">
-        <v>514.8620968941286</v>
+        <v>847.5198097271943</v>
       </c>
       <c r="D10" t="n">
-        <v>514.8620968941286</v>
+        <v>697.4031703148586</v>
       </c>
       <c r="E10" t="n">
-        <v>514.8620968941286</v>
+        <v>620.7172435647353</v>
       </c>
       <c r="F10" t="n">
-        <v>367.9721493962183</v>
+        <v>473.8272960668249</v>
       </c>
       <c r="G10" t="n">
-        <v>199.9856847044969</v>
+        <v>305.8408313751036</v>
       </c>
       <c r="H10" t="n">
-        <v>51.2467865680031</v>
+        <v>157.1019332386098</v>
       </c>
       <c r="I10" t="n">
         <v>51.2467865680031</v>
       </c>
       <c r="J10" t="n">
-        <v>76.71595955312198</v>
+        <v>76.71595955312196</v>
       </c>
       <c r="K10" t="n">
         <v>248.4064713020475</v>
@@ -4975,10 +4975,10 @@
         <v>1123.088724245823</v>
       </c>
       <c r="O10" t="n">
-        <v>1383.126566999035</v>
+        <v>1383.126566999034</v>
       </c>
       <c r="P10" t="n">
-        <v>1582.113182171024</v>
+        <v>1582.113182171023</v>
       </c>
       <c r="Q10" t="n">
         <v>1636.446120074497</v>
@@ -4987,25 +4987,25 @@
         <v>1533.862713590079</v>
       </c>
       <c r="S10" t="n">
-        <v>1337.233965749941</v>
+        <v>1533.862713590079</v>
       </c>
       <c r="T10" t="n">
-        <v>1154.565082148438</v>
+        <v>1533.862713590079</v>
       </c>
       <c r="U10" t="n">
-        <v>865.4467446522752</v>
+        <v>1533.862713590079</v>
       </c>
       <c r="V10" t="n">
-        <v>865.4467446522752</v>
+        <v>1533.862713590079</v>
       </c>
       <c r="W10" t="n">
-        <v>865.4467446522752</v>
+        <v>1244.445543553119</v>
       </c>
       <c r="X10" t="n">
-        <v>865.4467446522752</v>
+        <v>1016.455992655101</v>
       </c>
       <c r="Y10" t="n">
-        <v>865.4467446522752</v>
+        <v>1016.455992655101</v>
       </c>
     </row>
     <row r="11">
@@ -5018,70 +5018,70 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168616</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G11" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192605</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K11" t="n">
-        <v>852.852361107581</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N11" t="n">
         <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5103,7 +5103,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5112,28 +5112,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J12" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K12" t="n">
-        <v>427.7414352191925</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L12" t="n">
-        <v>923.0670414349513</v>
+        <v>119.290296770379</v>
       </c>
       <c r="M12" t="n">
-        <v>1520.445529061503</v>
+        <v>716.6687843969308</v>
       </c>
       <c r="N12" t="n">
-        <v>2148.04349261611</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O12" t="n">
-        <v>2148.04349261611</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P12" t="n">
         <v>2319.799627685893</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1089.575996120531</v>
+        <v>931.4710609784063</v>
       </c>
       <c r="C13" t="n">
-        <v>920.6398131926237</v>
+        <v>762.5348780504994</v>
       </c>
       <c r="D13" t="n">
-        <v>770.5231737802879</v>
+        <v>612.4182386381636</v>
       </c>
       <c r="E13" t="n">
-        <v>622.6100801978948</v>
+        <v>464.5051450557705</v>
       </c>
       <c r="F13" t="n">
-        <v>475.7201326999844</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="G13" t="n">
-        <v>308.5240334148644</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H13" t="n">
-        <v>166.8122022570625</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T13" t="n">
-        <v>2264.108249235165</v>
+        <v>2106.003314093041</v>
       </c>
       <c r="U13" t="n">
-        <v>2264.108249235165</v>
+        <v>2106.003314093041</v>
       </c>
       <c r="V13" t="n">
-        <v>2009.423761029278</v>
+        <v>1851.318825887154</v>
       </c>
       <c r="W13" t="n">
-        <v>1720.006590992318</v>
+        <v>1561.901655850193</v>
       </c>
       <c r="X13" t="n">
-        <v>1492.0170400943</v>
+        <v>1333.912104952176</v>
       </c>
       <c r="Y13" t="n">
-        <v>1271.22446095077</v>
+        <v>1113.119525808646</v>
       </c>
     </row>
     <row r="14">
@@ -5258,28 +5258,28 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
@@ -5358,25 +5358,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K15" t="n">
-        <v>93.81666304797187</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L15" t="n">
-        <v>93.81666304797187</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M15" t="n">
-        <v>691.1951506745238</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N15" t="n">
-        <v>1318.793114229131</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O15" t="n">
-        <v>1870.702844468418</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P15" t="n">
-        <v>2294.325993963486</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
-        <v>2527.587654338369</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,19 +5410,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>874.8686257536381</v>
+        <v>800.5007694647277</v>
       </c>
       <c r="C16" t="n">
-        <v>705.9324428257312</v>
+        <v>631.5645865368208</v>
       </c>
       <c r="D16" t="n">
-        <v>555.8158034133954</v>
+        <v>481.447947124485</v>
       </c>
       <c r="E16" t="n">
-        <v>407.9027098310023</v>
+        <v>333.5348535420919</v>
       </c>
       <c r="F16" t="n">
-        <v>261.0127623330919</v>
+        <v>186.6449060441816</v>
       </c>
       <c r="G16" t="n">
         <v>93.81666304797187</v>
@@ -5434,52 +5434,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S16" t="n">
-        <v>2446.963083580261</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T16" t="n">
-        <v>2227.361618603202</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="U16" t="n">
-        <v>1938.2863919474</v>
+        <v>1975.033022579363</v>
       </c>
       <c r="V16" t="n">
-        <v>1683.601903741513</v>
+        <v>1720.348534373476</v>
       </c>
       <c r="W16" t="n">
-        <v>1394.184733704552</v>
+        <v>1430.931364336515</v>
       </c>
       <c r="X16" t="n">
-        <v>1166.195182806535</v>
+        <v>1202.941813438498</v>
       </c>
       <c r="Y16" t="n">
-        <v>945.4026036630049</v>
+        <v>982.1492342949674</v>
       </c>
     </row>
     <row r="17">
@@ -5519,16 +5519,16 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
         <v>4194.413870694707</v>
@@ -5595,22 +5595,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K18" t="n">
-        <v>93.81666304797187</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L18" t="n">
-        <v>589.1422692637306</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="M18" t="n">
-        <v>1186.520756890282</v>
+        <v>716.6687843969308</v>
       </c>
       <c r="N18" t="n">
-        <v>1814.118720444889</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O18" t="n">
-        <v>2366.028450684176</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P18" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q18" t="n">
         <v>2553.061288060775</v>
@@ -5647,25 +5647,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1098.667160263527</v>
+        <v>869.6905094135296</v>
       </c>
       <c r="C19" t="n">
-        <v>929.7309773356195</v>
+        <v>700.7543264856228</v>
       </c>
       <c r="D19" t="n">
-        <v>779.6143379232838</v>
+        <v>550.637687073287</v>
       </c>
       <c r="E19" t="n">
-        <v>631.7012443408906</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F19" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
@@ -5695,28 +5695,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S19" t="n">
-        <v>2379.917379832663</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T19" t="n">
-        <v>2379.917379832663</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="U19" t="n">
-        <v>2090.842153176861</v>
+        <v>1975.033022579363</v>
       </c>
       <c r="V19" t="n">
-        <v>1836.157664970974</v>
+        <v>1720.348534373476</v>
       </c>
       <c r="W19" t="n">
-        <v>1729.097755135313</v>
+        <v>1430.931364336515</v>
       </c>
       <c r="X19" t="n">
-        <v>1501.108204237296</v>
+        <v>1202.941813438498</v>
       </c>
       <c r="Y19" t="n">
-        <v>1280.315625093766</v>
+        <v>1051.338974243769</v>
       </c>
     </row>
     <row r="20">
@@ -5741,34 +5741,34 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q20" t="n">
         <v>4562.265728852255</v>
@@ -5786,13 +5786,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5832,22 +5832,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K21" t="n">
-        <v>280.8495004245706</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L21" t="n">
-        <v>776.1751066403293</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M21" t="n">
-        <v>1373.553594266881</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N21" t="n">
-        <v>2001.151557821488</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="O21" t="n">
-        <v>2553.061288060775</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P21" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q21" t="n">
         <v>2553.061288060775</v>
@@ -5884,25 +5884,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>983.3556038098237</v>
+        <v>641.8461362382112</v>
       </c>
       <c r="C22" t="n">
-        <v>814.4194208819168</v>
+        <v>472.9099533103043</v>
       </c>
       <c r="D22" t="n">
-        <v>664.3027814695811</v>
+        <v>322.7933138979686</v>
       </c>
       <c r="E22" t="n">
-        <v>516.389687887188</v>
+        <v>322.7933138979686</v>
       </c>
       <c r="F22" t="n">
-        <v>369.4997403892776</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="G22" t="n">
-        <v>202.3036411041575</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
@@ -5935,25 +5935,25 @@
         <v>2446.96308358026</v>
       </c>
       <c r="S22" t="n">
-        <v>2446.96308358026</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T22" t="n">
-        <v>2446.96308358026</v>
+        <v>2105.453616008648</v>
       </c>
       <c r="U22" t="n">
-        <v>2157.887856924458</v>
+        <v>1816.378389352846</v>
       </c>
       <c r="V22" t="n">
-        <v>1903.203368718571</v>
+        <v>1561.693901146959</v>
       </c>
       <c r="W22" t="n">
-        <v>1613.786198681611</v>
+        <v>1272.276731109998</v>
       </c>
       <c r="X22" t="n">
-        <v>1385.796647783593</v>
+        <v>1044.287180211981</v>
       </c>
       <c r="Y22" t="n">
-        <v>1165.004068640063</v>
+        <v>823.4946010684509</v>
       </c>
     </row>
     <row r="23">
@@ -5981,10 +5981,10 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J23" t="n">
         <v>378.1925803111715</v>
@@ -6066,22 +6066,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K24" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L24" t="n">
-        <v>352.5519571452614</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M24" t="n">
-        <v>949.9304447718133</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N24" t="n">
-        <v>1577.52840832642</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O24" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
         <v>2553.061288060775</v>
@@ -6121,19 +6121,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>803.8641191832229</v>
+        <v>733.4550657171301</v>
       </c>
       <c r="C25" t="n">
-        <v>634.927936255316</v>
+        <v>564.5188827892232</v>
       </c>
       <c r="D25" t="n">
-        <v>484.8112968429803</v>
+        <v>414.4022433768874</v>
       </c>
       <c r="E25" t="n">
-        <v>484.8112968429803</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="F25" t="n">
-        <v>484.8112968429803</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="G25" t="n">
         <v>317.6151975578602</v>
@@ -6184,13 +6184,13 @@
         <v>1653.302830625878</v>
       </c>
       <c r="W25" t="n">
-        <v>1434.29471405501</v>
+        <v>1363.885660588917</v>
       </c>
       <c r="X25" t="n">
-        <v>1206.305163156993</v>
+        <v>1135.8961096909</v>
       </c>
       <c r="Y25" t="n">
-        <v>985.5125840134626</v>
+        <v>915.1035305473698</v>
       </c>
     </row>
     <row r="26">
@@ -6215,16 +6215,16 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797189</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
         <v>852.8523611075807</v>
@@ -6315,13 +6315,13 @@
         <v>1670.092171589158</v>
       </c>
       <c r="N27" t="n">
-        <v>1670.092171589158</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="O27" t="n">
-        <v>2222.001901828445</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P27" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
         <v>2553.061288060775</v>
@@ -6358,22 +6358,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>707.672526468518</v>
+        <v>552.8412329032296</v>
       </c>
       <c r="C28" t="n">
-        <v>538.7363435406111</v>
+        <v>552.8412329032296</v>
       </c>
       <c r="D28" t="n">
-        <v>388.6197041282753</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E28" t="n">
-        <v>240.7066105458822</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F28" t="n">
-        <v>93.81666304797187</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G28" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H28" t="n">
         <v>93.81666304797187</v>
@@ -6406,28 +6406,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2379.917379832663</v>
+        <v>2418.905011995821</v>
       </c>
       <c r="S28" t="n">
-        <v>2379.917379832663</v>
+        <v>2236.050177650725</v>
       </c>
       <c r="T28" t="n">
-        <v>2171.280006238955</v>
+        <v>2016.448712673667</v>
       </c>
       <c r="U28" t="n">
-        <v>1882.204779583153</v>
+        <v>1727.373486017864</v>
       </c>
       <c r="V28" t="n">
-        <v>1627.520291377266</v>
+        <v>1472.688997811978</v>
       </c>
       <c r="W28" t="n">
-        <v>1338.103121340305</v>
+        <v>1183.271827775017</v>
       </c>
       <c r="X28" t="n">
-        <v>1110.113570442288</v>
+        <v>955.2822768769995</v>
       </c>
       <c r="Y28" t="n">
-        <v>889.3209912987577</v>
+        <v>734.4896977334694</v>
       </c>
     </row>
     <row r="29">
@@ -6452,16 +6452,16 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
         <v>852.8523611075807</v>
@@ -6540,28 +6540,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J30" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K30" t="n">
-        <v>243.4633055756266</v>
+        <v>280.8495004245706</v>
       </c>
       <c r="L30" t="n">
-        <v>243.4633055756266</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M30" t="n">
-        <v>840.8417932021785</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N30" t="n">
-        <v>1468.439756756785</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O30" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,25 +6595,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>866.4638174991043</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C31" t="n">
-        <v>697.5276345711974</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D31" t="n">
-        <v>697.5276345711974</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E31" t="n">
-        <v>549.6145409888043</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F31" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G31" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
@@ -6643,28 +6643,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T31" t="n">
-        <v>2109.278718126011</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U31" t="n">
-        <v>1820.203491470209</v>
+        <v>1938.286391947399</v>
       </c>
       <c r="V31" t="n">
-        <v>1565.519003264322</v>
+        <v>1797.722346028744</v>
       </c>
       <c r="W31" t="n">
-        <v>1276.101833227361</v>
+        <v>1508.305175991783</v>
       </c>
       <c r="X31" t="n">
-        <v>1048.112282329344</v>
+        <v>1280.315625093766</v>
       </c>
       <c r="Y31" t="n">
-        <v>1048.112282329344</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="32">
@@ -6674,46 +6674,46 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G32" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H32" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
@@ -6731,19 +6731,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="33">
@@ -6777,25 +6777,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K33" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L33" t="n">
-        <v>589.1422692637306</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M33" t="n">
-        <v>716.6687843969308</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N33" t="n">
-        <v>1344.266747951538</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O33" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
         <v>2553.061288060775</v>
@@ -6832,22 +6832,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>726.955532171245</v>
+        <v>734.6461798836013</v>
       </c>
       <c r="C34" t="n">
-        <v>558.0193492433381</v>
+        <v>565.7099969556945</v>
       </c>
       <c r="D34" t="n">
-        <v>407.9027098310023</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="E34" t="n">
-        <v>407.9027098310023</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F34" t="n">
-        <v>261.0127623330919</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G34" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H34" t="n">
         <v>93.81666304797187</v>
@@ -6880,28 +6880,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2410.164476918741</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>2190.563011941682</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>1901.48778528588</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1646.803297079993</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1357.386127043032</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>1129.396576145015</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y34" t="n">
-        <v>908.6039970014847</v>
+        <v>916.2946447138411</v>
       </c>
     </row>
     <row r="35">
@@ -6932,52 +6932,52 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U35" t="n">
         <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -6999,7 +6999,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F36" t="n">
         <v>314.2396613568978</v>
@@ -7008,34 +7008,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J36" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K36" t="n">
-        <v>579.1554649516144</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L36" t="n">
-        <v>680.0291294438171</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M36" t="n">
-        <v>680.0291294438171</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N36" t="n">
-        <v>1307.627092998424</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O36" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,28 +7069,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>810.0653816078141</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C37" t="n">
-        <v>641.1291986799072</v>
+        <v>388.6197041282754</v>
       </c>
       <c r="D37" t="n">
-        <v>491.0125592675714</v>
+        <v>388.6197041282754</v>
       </c>
       <c r="E37" t="n">
-        <v>343.0994656851783</v>
+        <v>240.7066105458823</v>
       </c>
       <c r="F37" t="n">
-        <v>343.0994656851783</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="G37" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H37" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J37" t="n">
         <v>174.0526814782958</v>
@@ -7117,28 +7117,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R37" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2446.963083580261</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T37" t="n">
-        <v>2227.361618603202</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U37" t="n">
-        <v>1984.597634722449</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V37" t="n">
-        <v>1729.913146516562</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W37" t="n">
-        <v>1440.495976479601</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X37" t="n">
-        <v>1212.506425581584</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y37" t="n">
-        <v>991.7138464380538</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="38">
@@ -7166,43 +7166,43 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192605</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R38" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U38" t="n">
         <v>4151.812499466573</v>
@@ -7236,7 +7236,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E39" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F39" t="n">
         <v>314.2396613568978</v>
@@ -7245,34 +7245,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="K39" t="n">
-        <v>93.81666304797187</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L39" t="n">
-        <v>93.81666304797187</v>
+        <v>923.0670414349513</v>
       </c>
       <c r="M39" t="n">
-        <v>691.1951506745238</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N39" t="n">
-        <v>1318.79311422913</v>
+        <v>2148.04349261611</v>
       </c>
       <c r="O39" t="n">
-        <v>1870.702844468417</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2294.325993963485</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
-        <v>2527.587654338368</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>870.3164745246296</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C40" t="n">
-        <v>701.3802915967227</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="D40" t="n">
-        <v>551.263652184387</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E40" t="n">
-        <v>403.3505586019938</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F40" t="n">
-        <v>403.3505586019938</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G40" t="n">
-        <v>236.1544593168738</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H40" t="n">
-        <v>94.44262815907186</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R40" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T40" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U40" t="n">
-        <v>1755.431557602304</v>
+        <v>1828.279732885522</v>
       </c>
       <c r="V40" t="n">
-        <v>1500.747069396417</v>
+        <v>1573.595244679635</v>
       </c>
       <c r="W40" t="n">
-        <v>1500.747069396417</v>
+        <v>1284.178074642674</v>
       </c>
       <c r="X40" t="n">
-        <v>1272.757518498399</v>
+        <v>1056.188523744657</v>
       </c>
       <c r="Y40" t="n">
-        <v>1051.964939354869</v>
+        <v>835.3959446011269</v>
       </c>
     </row>
     <row r="41">
@@ -7400,31 +7400,31 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7485,31 +7485,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K42" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L42" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>691.1951506745238</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>1318.79311422913</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
-        <v>1870.702844468417</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>2294.325993963485</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
-        <v>2527.587654338368</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>763.7541388327643</v>
+        <v>781.8178837532263</v>
       </c>
       <c r="C43" t="n">
-        <v>594.8179559048574</v>
+        <v>781.8178837532263</v>
       </c>
       <c r="D43" t="n">
-        <v>444.7013164925216</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="E43" t="n">
-        <v>296.7882229101285</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F43" t="n">
-        <v>149.8982754122182</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G43" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R43" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T43" t="n">
-        <v>2227.361618603201</v>
+        <v>2160.315914855604</v>
       </c>
       <c r="U43" t="n">
-        <v>1938.286391947399</v>
+        <v>1871.240688199802</v>
       </c>
       <c r="V43" t="n">
-        <v>1683.601903741512</v>
+        <v>1616.556199993915</v>
       </c>
       <c r="W43" t="n">
-        <v>1394.184733704551</v>
+        <v>1327.139029956954</v>
       </c>
       <c r="X43" t="n">
-        <v>1166.195182806534</v>
+        <v>1099.149479058937</v>
       </c>
       <c r="Y43" t="n">
-        <v>945.402603663004</v>
+        <v>878.3568999154069</v>
       </c>
     </row>
     <row r="44">
@@ -7622,46 +7622,46 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G44" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7679,19 +7679,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="45">
@@ -7722,31 +7722,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K45" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L45" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>691.1951506745238</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>1318.79311422913</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
-        <v>1870.702844468417</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2294.325993963485</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
-        <v>2527.587654338368</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1098.667160263527</v>
+        <v>724.7519863413023</v>
       </c>
       <c r="C46" t="n">
-        <v>929.7309773356195</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="D46" t="n">
-        <v>779.6143379232838</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E46" t="n">
-        <v>631.7012443408906</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F46" t="n">
-        <v>484.8112968429803</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G46" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H46" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R46" t="n">
-        <v>2446.96308358026</v>
+        <v>2407.960931088798</v>
       </c>
       <c r="S46" t="n">
-        <v>2273.199413378161</v>
+        <v>2407.960931088798</v>
       </c>
       <c r="T46" t="n">
-        <v>2273.199413378161</v>
+        <v>2188.359466111739</v>
       </c>
       <c r="U46" t="n">
-        <v>2273.199413378161</v>
+        <v>1899.284239455937</v>
       </c>
       <c r="V46" t="n">
-        <v>2018.514925172274</v>
+        <v>1644.59975125005</v>
       </c>
       <c r="W46" t="n">
-        <v>1729.097755135313</v>
+        <v>1355.182581213089</v>
       </c>
       <c r="X46" t="n">
-        <v>1501.108204237296</v>
+        <v>1127.193030315072</v>
       </c>
       <c r="Y46" t="n">
-        <v>1280.315625093766</v>
+        <v>906.400451171542</v>
       </c>
     </row>
   </sheetData>
@@ -8055,13 +8055,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>30.36925650589494</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
-        <v>342.9044714621888</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -8076,10 +8076,10 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>186.5911984019049</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
-        <v>20.9377812015499</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8292,7 +8292,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -8301,22 +8301,22 @@
         <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>273.6534998179981</v>
       </c>
       <c r="N6" t="n">
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>255.8421700460949</v>
       </c>
       <c r="P6" t="n">
-        <v>168.7434581780643</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>45.52166981132082</v>
+        <v>20.93778120154991</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8532,7 +8532,7 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>264.4652370125786</v>
+        <v>211.0329012241559</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -8547,13 +8547,13 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>54.95314511566539</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>20.9377812015499</v>
+        <v>20.93778120154991</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -9644,7 +9644,7 @@
         <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="N23" t="n">
         <v>0</v>
@@ -10118,7 +10118,7 @@
         <v>0</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="N29" t="n">
         <v>0</v>
@@ -22550,19 +22550,19 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>211.1122937642986</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>209.1595668964427</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>11.54770277295399</v>
+        <v>19.59602846288044</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -22604,7 +22604,7 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -22613,7 +22613,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -23270,7 +23270,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>-3.513749910243533e-13</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -23428,13 +23428,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>9.000252501565825</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,13 +23461,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>127.2568112467073</v>
       </c>
       <c r="U13" t="n">
         <v>286.1844743892441</v>
@@ -23650,7 +23650,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>110.0033420516641</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -23665,13 +23665,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>73.6241777260222</v>
       </c>
       <c r="H16" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,13 +23698,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016463</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23899,7 +23899,7 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -23908,7 +23908,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,10 +23935,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>217.4054503272883</v>
@@ -23950,13 +23950,13 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>180.5336875992872</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>68.4978425493139</v>
       </c>
     </row>
     <row r="20">
@@ -24133,19 +24133,19 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>32.8926045706001</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24175,10 +24175,10 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>217.4054503272883</v>
+        <v>60.33736343303687</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24370,13 +24370,13 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>50.61478728573221</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -24424,7 +24424,7 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>69.70496293143174</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -24601,22 +24601,22 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>81.26583631856553</v>
@@ -24646,13 +24646,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>38.59775584152668</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>10.85445046951719</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24841,7 +24841,7 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -24856,7 +24856,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,19 +24883,19 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>130.4994612393477</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>112.9792378643596</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -25078,7 +25078,7 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>132.6809716109911</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
@@ -25090,7 +25090,7 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>81.26583631856553</v>
@@ -25120,10 +25120,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>144.5956654067399</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25141,7 +25141,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -25312,25 +25312,25 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>43.26526345294951</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,16 +25357,16 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>45.84813034729834</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25552,10 +25552,10 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
@@ -25567,7 +25567,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>80.64613085857654</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,7 +25594,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25603,13 +25603,13 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>138.4949402405073</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -25783,28 +25783,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>84.25835418137852</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>110.003342051665</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25831,7 +25831,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
@@ -26026,7 +26026,7 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -26038,10 +26038,10 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,16 +26068,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>27.76311574357352</v>
       </c>
       <c r="S46" t="n">
-        <v>9.000252501566052</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26311,10 +26311,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>298593.7657794695</v>
+        <v>298593.7657794696</v>
       </c>
       <c r="C2" t="n">
-        <v>328416.7079457134</v>
+        <v>328416.7079457135</v>
       </c>
       <c r="D2" t="n">
         <v>328416.7079457134</v>
@@ -26326,7 +26326,7 @@
         <v>322858.6398760023</v>
       </c>
       <c r="G2" t="n">
-        <v>322858.6398760024</v>
+        <v>322858.6398760023</v>
       </c>
       <c r="H2" t="n">
         <v>322858.6398760024</v>
@@ -26335,13 +26335,13 @@
         <v>322858.6398760024</v>
       </c>
       <c r="J2" t="n">
-        <v>322858.6398760025</v>
+        <v>322858.6398760024</v>
       </c>
       <c r="K2" t="n">
         <v>322858.6398760025</v>
       </c>
       <c r="L2" t="n">
-        <v>322858.6398760024</v>
+        <v>322858.6398760023</v>
       </c>
       <c r="M2" t="n">
         <v>322858.6398760025</v>
@@ -26350,7 +26350,7 @@
         <v>322858.6398760024</v>
       </c>
       <c r="O2" t="n">
-        <v>322858.6398760024</v>
+        <v>322858.6398760025</v>
       </c>
       <c r="P2" t="n">
         <v>322858.6398760024</v>
@@ -26363,7 +26363,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1114751.78357592</v>
+        <v>1114751.783575919</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26372,7 +26372,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>507485.4416245461</v>
+        <v>507485.441624546</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26415,10 +26415,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>90558.9798340791</v>
+        <v>90558.97983407916</v>
       </c>
       <c r="C4" t="n">
-        <v>133113.8635467443</v>
+        <v>133113.8635467444</v>
       </c>
       <c r="D4" t="n">
         <v>133113.8635467444</v>
@@ -26427,7 +26427,7 @@
         <v>7507.368461719667</v>
       </c>
       <c r="F4" t="n">
-        <v>7507.368461719668</v>
+        <v>7507.368461719667</v>
       </c>
       <c r="G4" t="n">
         <v>7507.368461719667</v>
@@ -26436,25 +26436,25 @@
         <v>7507.368461719667</v>
       </c>
       <c r="I4" t="n">
-        <v>7507.368461719667</v>
+        <v>7507.368461719678</v>
       </c>
       <c r="J4" t="n">
         <v>7507.368461719667</v>
       </c>
       <c r="K4" t="n">
-        <v>7507.368461719667</v>
+        <v>7507.368461719678</v>
       </c>
       <c r="L4" t="n">
         <v>7507.368461719667</v>
       </c>
       <c r="M4" t="n">
-        <v>7507.368461719668</v>
+        <v>7507.368461719638</v>
       </c>
       <c r="N4" t="n">
+        <v>7507.368461719638</v>
+      </c>
+      <c r="O4" t="n">
         <v>7507.368461719667</v>
-      </c>
-      <c r="O4" t="n">
-        <v>7507.368461719688</v>
       </c>
       <c r="P4" t="n">
         <v>7507.368461719667</v>
@@ -26467,10 +26467,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>92937.77243984472</v>
+        <v>92937.7724398447</v>
       </c>
       <c r="C5" t="n">
-        <v>92937.77243984472</v>
+        <v>92937.77243984469</v>
       </c>
       <c r="D5" t="n">
         <v>92937.7724398447</v>
@@ -26519,7 +26519,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-999654.770070374</v>
+        <v>-999841.1634589126</v>
       </c>
       <c r="C6" t="n">
         <v>102365.0719591244</v>
@@ -26528,40 +26528,40 @@
         <v>102365.0719591244</v>
       </c>
       <c r="E6" t="n">
-        <v>-293256.7000341704</v>
+        <v>-293291.4379596059</v>
       </c>
       <c r="F6" t="n">
-        <v>214228.7415903755</v>
+        <v>214194.0036649398</v>
       </c>
       <c r="G6" t="n">
-        <v>214228.7415903758</v>
+        <v>214194.0036649398</v>
       </c>
       <c r="H6" t="n">
-        <v>214228.7415903756</v>
+        <v>214194.00366494</v>
       </c>
       <c r="I6" t="n">
-        <v>214228.7415903756</v>
+        <v>214194.0036649399</v>
       </c>
       <c r="J6" t="n">
-        <v>46623.56378039315</v>
+        <v>46588.82585495742</v>
       </c>
       <c r="K6" t="n">
-        <v>214228.7415903757</v>
+        <v>214194.00366494</v>
       </c>
       <c r="L6" t="n">
-        <v>214228.7415903756</v>
+        <v>214194.0036649398</v>
       </c>
       <c r="M6" t="n">
-        <v>81621.44786144882</v>
+        <v>81586.70993601314</v>
       </c>
       <c r="N6" t="n">
-        <v>214228.7415903758</v>
+        <v>214194.00366494</v>
       </c>
       <c r="O6" t="n">
-        <v>214228.7415903755</v>
+        <v>214194.00366494</v>
       </c>
       <c r="P6" t="n">
-        <v>214228.7415903757</v>
+        <v>214194.00366494</v>
       </c>
     </row>
   </sheetData>
@@ -26735,13 +26735,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175392</v>
+        <v>934.0648921175391</v>
       </c>
       <c r="C3" t="n">
-        <v>934.0648921175392</v>
+        <v>934.0648921175391</v>
       </c>
       <c r="D3" t="n">
-        <v>934.0648921175392</v>
+        <v>934.0648921175391</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26787,16 +26787,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.584832100039</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="C4" t="n">
-        <v>640.584832100039</v>
+        <v>640.5848321000385</v>
       </c>
       <c r="D4" t="n">
         <v>640.5848321000387</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="F4" t="n">
         <v>1172.708288099648</v>
@@ -26820,10 +26820,10 @@
         <v>1172.708288099648</v>
       </c>
       <c r="M4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="N4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="O4" t="n">
         <v>1172.708288099648</v>
@@ -26957,7 +26957,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175392</v>
+        <v>934.0648921175391</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>433.9106082241348</v>
+        <v>433.9106082241346</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27009,7 +27009,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.584832100039</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>532.1234559996099</v>
+        <v>532.1234559996096</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.584832100039</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27255,7 +27255,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.584832100039</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>532.1234559996099</v>
+        <v>532.1234559996096</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,22 +27376,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>78.52462416578217</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>172.7708031758191</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -27427,16 +27427,16 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -27445,7 +27445,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27534,25 +27534,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>68.227808497618</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>76.61942904874761</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -27582,10 +27582,10 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T4" t="n">
         <v>220.7486959972119</v>
@@ -27600,7 +27600,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -27616,25 +27616,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>135.5942955663716</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>78.05012798721049</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,13 +27664,13 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>206.6581849802338</v>
       </c>
       <c r="U5" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -27679,7 +27679,7 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -27774,10 +27774,10 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>19.43049206570927</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -27786,13 +27786,13 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>147.2515091551288</v>
+        <v>147.2515091551289</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27834,13 +27834,13 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>0.2633688728971606</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27850,28 +27850,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>237.2450790360915</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>76.00532558075639</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,22 +27901,22 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -28008,16 +28008,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>70.51489516394714</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -28029,7 +28029,7 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28059,22 +28059,22 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T10" t="n">
-        <v>39.90650123172398</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -28324,7 +28324,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -28342,7 +28342,7 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -28497,7 +28497,7 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>-9.426533627750662e-13</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -28533,7 +28533,7 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>-1.696776052995119e-12</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -30040,7 +30040,7 @@
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>-6.536993168992922e-13</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -30277,7 +30277,7 @@
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>-6.536993168992922e-13</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -30460,7 +30460,7 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
@@ -31042,43 +31042,43 @@
         <v>3.755034742181059</v>
       </c>
       <c r="H2" t="n">
-        <v>38.45624955336179</v>
+        <v>38.45624955336178</v>
       </c>
       <c r="I2" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J2" t="n">
-        <v>318.70387994919</v>
+        <v>318.7038799491899</v>
       </c>
       <c r="K2" t="n">
-        <v>477.6545005857143</v>
+        <v>477.6545005857142</v>
       </c>
       <c r="L2" t="n">
-        <v>592.572645076738</v>
+        <v>592.5726450767379</v>
       </c>
       <c r="M2" t="n">
-        <v>659.3512441730004</v>
+        <v>659.3512441730003</v>
       </c>
       <c r="N2" t="n">
-        <v>670.0202366342224</v>
+        <v>670.0202366342223</v>
       </c>
       <c r="O2" t="n">
-        <v>632.6811099166595</v>
+        <v>632.6811099166594</v>
       </c>
       <c r="P2" t="n">
-        <v>539.9786897190645</v>
+        <v>539.9786897190644</v>
       </c>
       <c r="Q2" t="n">
-        <v>405.5015080147052</v>
+        <v>405.5015080147051</v>
       </c>
       <c r="R2" t="n">
-        <v>235.8772011235312</v>
+        <v>235.8772011235311</v>
       </c>
       <c r="S2" t="n">
-        <v>85.56785418745098</v>
+        <v>85.56785418745096</v>
       </c>
       <c r="T2" t="n">
-        <v>16.4376645838976</v>
+        <v>16.43766458389759</v>
       </c>
       <c r="U2" t="n">
         <v>0.3004027793744847</v>
@@ -31121,10 +31121,10 @@
         <v>2.00912071134716</v>
       </c>
       <c r="H3" t="n">
-        <v>19.40387634380021</v>
+        <v>19.4038763438002</v>
       </c>
       <c r="I3" t="n">
-        <v>69.17367361436494</v>
+        <v>69.17367361436493</v>
       </c>
       <c r="J3" t="n">
         <v>189.8178475575841</v>
@@ -31133,7 +31133,7 @@
         <v>324.4289352178438</v>
       </c>
       <c r="L3" t="n">
-        <v>436.2347404177244</v>
+        <v>436.2347404177243</v>
       </c>
       <c r="M3" t="n">
         <v>509.0653662040588</v>
@@ -31142,25 +31142,25 @@
         <v>522.5388116762072</v>
       </c>
       <c r="O3" t="n">
-        <v>478.0209264405675</v>
+        <v>478.0209264405674</v>
       </c>
       <c r="P3" t="n">
         <v>383.6539365378625</v>
       </c>
       <c r="Q3" t="n">
-        <v>256.4624964168761</v>
+        <v>256.462496416876</v>
       </c>
       <c r="R3" t="n">
-        <v>124.7417227624141</v>
+        <v>124.741722762414</v>
       </c>
       <c r="S3" t="n">
-        <v>37.31853601997902</v>
+        <v>37.31853601997901</v>
       </c>
       <c r="T3" t="n">
-        <v>8.098166376000172</v>
+        <v>8.098166376000171</v>
       </c>
       <c r="U3" t="n">
-        <v>0.1321789941675764</v>
+        <v>0.1321789941675763</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31203,7 +31203,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I4" t="n">
-        <v>50.65387972335771</v>
+        <v>50.6538797233577</v>
       </c>
       <c r="J4" t="n">
         <v>119.0856174753787</v>
@@ -31218,10 +31218,10 @@
         <v>264.0341136849627</v>
       </c>
       <c r="N4" t="n">
-        <v>257.7559726067959</v>
+        <v>257.7559726067958</v>
       </c>
       <c r="O4" t="n">
-        <v>238.0793597154673</v>
+        <v>238.0793597154672</v>
       </c>
       <c r="P4" t="n">
         <v>203.7180217169137</v>
@@ -31233,13 +31233,13 @@
         <v>75.73581895759585</v>
       </c>
       <c r="S4" t="n">
-        <v>29.35413767523479</v>
+        <v>29.35413767523478</v>
       </c>
       <c r="T4" t="n">
-        <v>7.196893431069562</v>
+        <v>7.196893431069561</v>
       </c>
       <c r="U4" t="n">
-        <v>0.09187523529024985</v>
+        <v>0.09187523529024984</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31279,43 +31279,43 @@
         <v>3.755034742181059</v>
       </c>
       <c r="H5" t="n">
-        <v>38.45624955336179</v>
+        <v>38.45624955336178</v>
       </c>
       <c r="I5" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J5" t="n">
-        <v>318.70387994919</v>
+        <v>318.7038799491899</v>
       </c>
       <c r="K5" t="n">
-        <v>477.6545005857143</v>
+        <v>477.6545005857142</v>
       </c>
       <c r="L5" t="n">
-        <v>592.572645076738</v>
+        <v>592.5726450767379</v>
       </c>
       <c r="M5" t="n">
-        <v>659.3512441730004</v>
+        <v>659.3512441730003</v>
       </c>
       <c r="N5" t="n">
-        <v>670.0202366342224</v>
+        <v>670.0202366342223</v>
       </c>
       <c r="O5" t="n">
-        <v>632.6811099166595</v>
+        <v>632.6811099166594</v>
       </c>
       <c r="P5" t="n">
-        <v>539.9786897190645</v>
+        <v>539.9786897190644</v>
       </c>
       <c r="Q5" t="n">
-        <v>405.5015080147052</v>
+        <v>405.5015080147051</v>
       </c>
       <c r="R5" t="n">
-        <v>235.8772011235312</v>
+        <v>235.8772011235311</v>
       </c>
       <c r="S5" t="n">
-        <v>85.56785418745098</v>
+        <v>85.56785418745096</v>
       </c>
       <c r="T5" t="n">
-        <v>16.4376645838976</v>
+        <v>16.43766458389759</v>
       </c>
       <c r="U5" t="n">
         <v>0.3004027793744847</v>
@@ -31358,10 +31358,10 @@
         <v>2.00912071134716</v>
       </c>
       <c r="H6" t="n">
-        <v>19.40387634380021</v>
+        <v>19.4038763438002</v>
       </c>
       <c r="I6" t="n">
-        <v>69.17367361436494</v>
+        <v>69.17367361436493</v>
       </c>
       <c r="J6" t="n">
         <v>189.8178475575841</v>
@@ -31370,7 +31370,7 @@
         <v>324.4289352178438</v>
       </c>
       <c r="L6" t="n">
-        <v>436.2347404177244</v>
+        <v>436.2347404177243</v>
       </c>
       <c r="M6" t="n">
         <v>509.0653662040588</v>
@@ -31379,25 +31379,25 @@
         <v>522.5388116762072</v>
       </c>
       <c r="O6" t="n">
-        <v>478.0209264405675</v>
+        <v>478.0209264405674</v>
       </c>
       <c r="P6" t="n">
         <v>383.6539365378625</v>
       </c>
       <c r="Q6" t="n">
-        <v>256.4624964168761</v>
+        <v>256.462496416876</v>
       </c>
       <c r="R6" t="n">
-        <v>124.7417227624141</v>
+        <v>124.741722762414</v>
       </c>
       <c r="S6" t="n">
-        <v>37.31853601997902</v>
+        <v>37.31853601997901</v>
       </c>
       <c r="T6" t="n">
-        <v>8.098166376000172</v>
+        <v>8.098166376000171</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1321789941675764</v>
+        <v>0.1321789941675763</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31440,7 +31440,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I7" t="n">
-        <v>50.65387972335771</v>
+        <v>50.6538797233577</v>
       </c>
       <c r="J7" t="n">
         <v>119.0856174753787</v>
@@ -31455,10 +31455,10 @@
         <v>264.0341136849627</v>
       </c>
       <c r="N7" t="n">
-        <v>257.7559726067959</v>
+        <v>257.7559726067958</v>
       </c>
       <c r="O7" t="n">
-        <v>238.0793597154673</v>
+        <v>238.0793597154672</v>
       </c>
       <c r="P7" t="n">
         <v>203.7180217169137</v>
@@ -31470,13 +31470,13 @@
         <v>75.73581895759585</v>
       </c>
       <c r="S7" t="n">
-        <v>29.35413767523479</v>
+        <v>29.35413767523478</v>
       </c>
       <c r="T7" t="n">
-        <v>7.196893431069562</v>
+        <v>7.196893431069561</v>
       </c>
       <c r="U7" t="n">
-        <v>0.09187523529024985</v>
+        <v>0.09187523529024984</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31516,43 +31516,43 @@
         <v>3.755034742181059</v>
       </c>
       <c r="H8" t="n">
-        <v>38.45624955336179</v>
+        <v>38.45624955336178</v>
       </c>
       <c r="I8" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J8" t="n">
-        <v>318.70387994919</v>
+        <v>318.7038799491899</v>
       </c>
       <c r="K8" t="n">
-        <v>477.6545005857143</v>
+        <v>477.6545005857142</v>
       </c>
       <c r="L8" t="n">
-        <v>592.572645076738</v>
+        <v>592.5726450767379</v>
       </c>
       <c r="M8" t="n">
-        <v>659.3512441730004</v>
+        <v>659.3512441730003</v>
       </c>
       <c r="N8" t="n">
-        <v>670.0202366342224</v>
+        <v>670.0202366342223</v>
       </c>
       <c r="O8" t="n">
-        <v>632.6811099166595</v>
+        <v>632.6811099166594</v>
       </c>
       <c r="P8" t="n">
-        <v>539.9786897190645</v>
+        <v>539.9786897190644</v>
       </c>
       <c r="Q8" t="n">
-        <v>405.5015080147052</v>
+        <v>405.5015080147051</v>
       </c>
       <c r="R8" t="n">
-        <v>235.8772011235312</v>
+        <v>235.8772011235311</v>
       </c>
       <c r="S8" t="n">
-        <v>85.56785418745098</v>
+        <v>85.56785418745096</v>
       </c>
       <c r="T8" t="n">
-        <v>16.4376645838976</v>
+        <v>16.43766458389759</v>
       </c>
       <c r="U8" t="n">
         <v>0.3004027793744847</v>
@@ -31595,10 +31595,10 @@
         <v>2.00912071134716</v>
       </c>
       <c r="H9" t="n">
-        <v>19.40387634380021</v>
+        <v>19.4038763438002</v>
       </c>
       <c r="I9" t="n">
-        <v>69.17367361436494</v>
+        <v>69.17367361436493</v>
       </c>
       <c r="J9" t="n">
         <v>189.8178475575841</v>
@@ -31607,7 +31607,7 @@
         <v>324.4289352178438</v>
       </c>
       <c r="L9" t="n">
-        <v>436.2347404177244</v>
+        <v>436.2347404177243</v>
       </c>
       <c r="M9" t="n">
         <v>509.0653662040588</v>
@@ -31616,25 +31616,25 @@
         <v>522.5388116762072</v>
       </c>
       <c r="O9" t="n">
-        <v>478.0209264405675</v>
+        <v>478.0209264405674</v>
       </c>
       <c r="P9" t="n">
         <v>383.6539365378625</v>
       </c>
       <c r="Q9" t="n">
-        <v>256.4624964168761</v>
+        <v>256.462496416876</v>
       </c>
       <c r="R9" t="n">
-        <v>124.7417227624141</v>
+        <v>124.741722762414</v>
       </c>
       <c r="S9" t="n">
-        <v>37.31853601997902</v>
+        <v>37.31853601997901</v>
       </c>
       <c r="T9" t="n">
-        <v>8.098166376000172</v>
+        <v>8.098166376000171</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1321789941675764</v>
+        <v>0.1321789941675763</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31677,7 +31677,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I10" t="n">
-        <v>50.65387972335771</v>
+        <v>50.6538797233577</v>
       </c>
       <c r="J10" t="n">
         <v>119.0856174753787</v>
@@ -31692,10 +31692,10 @@
         <v>264.0341136849627</v>
       </c>
       <c r="N10" t="n">
-        <v>257.7559726067959</v>
+        <v>257.7559726067958</v>
       </c>
       <c r="O10" t="n">
-        <v>238.0793597154673</v>
+        <v>238.0793597154672</v>
       </c>
       <c r="P10" t="n">
         <v>203.7180217169137</v>
@@ -31707,13 +31707,13 @@
         <v>75.73581895759585</v>
       </c>
       <c r="S10" t="n">
-        <v>29.35413767523479</v>
+        <v>29.35413767523478</v>
       </c>
       <c r="T10" t="n">
-        <v>7.196893431069562</v>
+        <v>7.196893431069561</v>
       </c>
       <c r="U10" t="n">
-        <v>0.09187523529024985</v>
+        <v>0.09187523529024984</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,7 +31750,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31762,31 +31762,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S11" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31829,10 +31829,10 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H12" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
         <v>99.52238</v>
@@ -31841,37 +31841,37 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422586</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473073</v>
+        <v>164.2853229338207</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P12" t="n">
-        <v>307.465452939363</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31911,25 +31911,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31938,19 +31938,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,7 +31987,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -31999,31 +31999,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S14" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32066,10 +32066,10 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H15" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
         <v>99.52238</v>
@@ -32078,37 +32078,37 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>138.5543797798742</v>
+        <v>490.507583235568</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
-        <v>171.4104471179097</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32148,25 +32148,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32175,19 +32175,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32315,13 +32315,13 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862121</v>
+        <v>433.9798411722591</v>
       </c>
       <c r="N18" t="n">
         <v>765.2790490071785</v>
@@ -32330,10 +32330,10 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P18" t="n">
-        <v>322.8964653704906</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q18" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R18" t="n">
         <v>145.679503963964</v>
@@ -32552,7 +32552,7 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K21" t="n">
-        <v>326.7634969305194</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
         <v>638.8832749473072</v>
@@ -32561,16 +32561,16 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>522.1224556861836</v>
       </c>
       <c r="P21" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q21" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R21" t="n">
         <v>145.679503963964</v>
@@ -32786,13 +32786,13 @@
         <v>99.52238</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>399.9031616963283</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
         <v>745.5466476862121</v>
@@ -32801,10 +32801,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
         <v>139.9817740860215</v>
@@ -33035,16 +33035,16 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>131.3417120833333</v>
+        <v>595.327537312171</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P27" t="n">
-        <v>232.75998908852</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
         <v>145.679503963964</v>
@@ -33260,13 +33260,13 @@
         <v>99.52238</v>
       </c>
       <c r="J30" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>326.7634969305194</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
         <v>745.5466476862121</v>
@@ -33275,16 +33275,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>537.6437863443698</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742438</v>
@@ -33442,7 +33442,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043729</v>
       </c>
       <c r="S32" t="n">
         <v>125.31755462929</v>
@@ -33497,16 +33497,16 @@
         <v>99.52238</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>270.9486956727256</v>
+        <v>446.0127311990643</v>
       </c>
       <c r="N33" t="n">
         <v>765.2790490071785</v>
@@ -33515,10 +33515,10 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
         <v>145.679503963964</v>
@@ -33731,7 +33731,7 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I36" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J36" t="n">
         <v>277.9958514420755</v>
@@ -33740,25 +33740,25 @@
         <v>475.1391886422586</v>
       </c>
       <c r="L36" t="n">
-        <v>240.4469701760385</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M36" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N36" t="n">
         <v>765.2790490071786</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437244</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742439</v>
@@ -33883,7 +33883,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
@@ -33895,31 +33895,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L38" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S38" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33962,10 +33962,10 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H39" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I39" t="n">
         <v>99.52238</v>
@@ -33974,37 +33974,37 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>551.7051287319848</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>171.4104471179106</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34044,25 +34044,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34071,19 +34071,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,7 +34120,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
@@ -34132,31 +34132,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L41" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S41" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34199,49 +34199,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H42" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>171.4104471179106</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34281,25 +34281,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34308,19 +34308,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,7 +34357,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
@@ -34369,31 +34369,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L44" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162548</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S44" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34436,49 +34436,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H45" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>171.4104471179106</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34518,25 +34518,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34545,19 +34545,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34696,31 +34696,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>137.6579754225037</v>
+        <v>137.6579754225036</v>
       </c>
       <c r="K2" t="n">
         <v>257.5646495407337</v>
       </c>
       <c r="L2" t="n">
-        <v>356.8062301067508</v>
+        <v>356.8062301067507</v>
       </c>
       <c r="M2" t="n">
-        <v>429.0050109457277</v>
+        <v>429.0050109457276</v>
       </c>
       <c r="N2" t="n">
-        <v>440.6071730376315</v>
+        <v>440.6071730376314</v>
       </c>
       <c r="O2" t="n">
-        <v>402.5828984949727</v>
+        <v>402.5828984949726</v>
       </c>
       <c r="P2" t="n">
-        <v>308.745693963795</v>
+        <v>308.7456939637948</v>
       </c>
       <c r="Q2" t="n">
-        <v>183.1958181402557</v>
+        <v>183.1958181402556</v>
       </c>
       <c r="R2" t="n">
-        <v>20.29166330939904</v>
+        <v>20.29166330939901</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,16 +34775,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>62.98022089091742</v>
+        <v>93.34947739681233</v>
       </c>
       <c r="K3" t="n">
-        <v>186.5874962434848</v>
+        <v>451.0527332560634</v>
       </c>
       <c r="L3" t="n">
-        <v>640.584832100039</v>
+        <v>297.6803606378501</v>
       </c>
       <c r="M3" t="n">
-        <v>366.9313322820405</v>
+        <v>366.9313322820404</v>
       </c>
       <c r="N3" t="n">
         <v>391.1970995928739</v>
@@ -34793,13 +34793,13 @@
         <v>335.424681996123</v>
       </c>
       <c r="P3" t="n">
-        <v>249.6795291235323</v>
+        <v>249.6795291235322</v>
       </c>
       <c r="Q3" t="n">
-        <v>303.0719207327595</v>
+        <v>326.5580100667036</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>24.58388860977091</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34854,10 +34854,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>25.72643735870594</v>
+        <v>25.72643735870592</v>
       </c>
       <c r="K4" t="n">
-        <v>173.4247593423491</v>
+        <v>173.424759342349</v>
       </c>
       <c r="L4" t="n">
         <v>278.0112915831069</v>
@@ -34866,7 +34866,7 @@
         <v>303.6179906468033</v>
       </c>
       <c r="N4" t="n">
-        <v>301.8881449860245</v>
+        <v>301.8881449860244</v>
       </c>
       <c r="O4" t="n">
         <v>262.6644876295069</v>
@@ -34875,7 +34875,7 @@
         <v>200.9965809818072</v>
       </c>
       <c r="Q4" t="n">
-        <v>54.88175545805403</v>
+        <v>54.881755458054</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,31 +34933,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>137.6579754225037</v>
+        <v>137.6579754225036</v>
       </c>
       <c r="K5" t="n">
         <v>257.5646495407337</v>
       </c>
       <c r="L5" t="n">
-        <v>356.8062301067508</v>
+        <v>356.8062301067507</v>
       </c>
       <c r="M5" t="n">
-        <v>429.0050109457277</v>
+        <v>429.0050109457276</v>
       </c>
       <c r="N5" t="n">
-        <v>440.6071730376315</v>
+        <v>440.6071730376314</v>
       </c>
       <c r="O5" t="n">
-        <v>402.5828984949727</v>
+        <v>402.5828984949726</v>
       </c>
       <c r="P5" t="n">
-        <v>308.745693963795</v>
+        <v>308.7456939637948</v>
       </c>
       <c r="Q5" t="n">
-        <v>183.1958181402557</v>
+        <v>183.1958181402556</v>
       </c>
       <c r="R5" t="n">
-        <v>20.29166330939904</v>
+        <v>20.29166330939901</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,31 +35012,31 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>189.0712562313263</v>
+        <v>62.98022089091739</v>
       </c>
       <c r="K6" t="n">
         <v>186.5874962434848</v>
       </c>
       <c r="L6" t="n">
-        <v>297.6803606378502</v>
+        <v>297.6803606378501</v>
       </c>
       <c r="M6" t="n">
-        <v>366.9313322820405</v>
+        <v>640.5848321000385</v>
       </c>
       <c r="N6" t="n">
         <v>391.1970995928739</v>
       </c>
       <c r="O6" t="n">
-        <v>335.424681996123</v>
+        <v>591.2668520422178</v>
       </c>
       <c r="P6" t="n">
-        <v>418.4229873015965</v>
+        <v>249.6795291235322</v>
       </c>
       <c r="Q6" t="n">
-        <v>326.5580100667037</v>
+        <v>116.4807223308545</v>
       </c>
       <c r="R6" t="n">
-        <v>24.58388860977092</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35091,10 +35091,10 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>25.72643735870594</v>
+        <v>25.72643735870592</v>
       </c>
       <c r="K7" t="n">
-        <v>173.4247593423491</v>
+        <v>173.424759342349</v>
       </c>
       <c r="L7" t="n">
         <v>278.0112915831069</v>
@@ -35103,7 +35103,7 @@
         <v>303.6179906468033</v>
       </c>
       <c r="N7" t="n">
-        <v>301.8881449860245</v>
+        <v>301.8881449860244</v>
       </c>
       <c r="O7" t="n">
         <v>262.6644876295069</v>
@@ -35112,7 +35112,7 @@
         <v>200.9965809818072</v>
       </c>
       <c r="Q7" t="n">
-        <v>54.88175545805403</v>
+        <v>54.881755458054</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35170,31 +35170,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>137.6579754225037</v>
+        <v>137.6579754225036</v>
       </c>
       <c r="K8" t="n">
         <v>257.5646495407337</v>
       </c>
       <c r="L8" t="n">
-        <v>356.8062301067508</v>
+        <v>356.8062301067507</v>
       </c>
       <c r="M8" t="n">
-        <v>429.0050109457277</v>
+        <v>429.0050109457276</v>
       </c>
       <c r="N8" t="n">
-        <v>440.6071730376315</v>
+        <v>440.6071730376314</v>
       </c>
       <c r="O8" t="n">
-        <v>402.5828984949727</v>
+        <v>402.5828984949726</v>
       </c>
       <c r="P8" t="n">
-        <v>308.745693963795</v>
+        <v>308.7456939637948</v>
       </c>
       <c r="Q8" t="n">
-        <v>183.1958181402557</v>
+        <v>183.1958181402556</v>
       </c>
       <c r="R8" t="n">
-        <v>20.29166330939904</v>
+        <v>20.29166330939901</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,16 +35249,16 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>62.98022089091742</v>
+        <v>62.98022089091739</v>
       </c>
       <c r="K9" t="n">
-        <v>451.0527332560634</v>
+        <v>397.6203974676407</v>
       </c>
       <c r="L9" t="n">
-        <v>297.6803606378502</v>
+        <v>297.6803606378501</v>
       </c>
       <c r="M9" t="n">
-        <v>366.9313322820405</v>
+        <v>366.9313322820404</v>
       </c>
       <c r="N9" t="n">
         <v>391.1970995928739</v>
@@ -35267,10 +35267,10 @@
         <v>335.424681996123</v>
       </c>
       <c r="P9" t="n">
-        <v>304.6326742391977</v>
+        <v>568.1422977634694</v>
       </c>
       <c r="Q9" t="n">
-        <v>326.5580100667037</v>
+        <v>116.4807223308545</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35328,10 +35328,10 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>25.72643735870594</v>
+        <v>25.72643735870592</v>
       </c>
       <c r="K10" t="n">
-        <v>173.4247593423491</v>
+        <v>173.424759342349</v>
       </c>
       <c r="L10" t="n">
         <v>278.0112915831069</v>
@@ -35340,7 +35340,7 @@
         <v>303.6179906468033</v>
       </c>
       <c r="N10" t="n">
-        <v>301.8881449860245</v>
+        <v>301.8881449860244</v>
       </c>
       <c r="O10" t="n">
         <v>262.6644876295069</v>
@@ -35349,7 +35349,7 @@
         <v>200.9965809818072</v>
       </c>
       <c r="Q10" t="n">
-        <v>54.88175545805403</v>
+        <v>54.881755458054</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35404,34 +35404,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L11" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35489,25 +35489,25 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674331</v>
+        <v>25.73094315394657</v>
       </c>
       <c r="M12" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P12" t="n">
-        <v>173.4910455250327</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,22 +35565,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K13" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35641,34 +35641,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35726,28 +35726,28 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>351.9532034556938</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>25.73094315394571</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,22 +35802,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K16" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35963,13 +35963,13 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>603.4126137641938</v>
+        <v>291.8458072502408</v>
       </c>
       <c r="N18" t="n">
         <v>633.9373369238452</v>
@@ -35978,10 +35978,10 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P18" t="n">
-        <v>188.9220579561604</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36200,7 +36200,7 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>188.9220579561604</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
         <v>500.328895167433</v>
@@ -36209,16 +36209,16 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>379.5262112417391</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36364,7 +36364,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902952</v>
       </c>
       <c r="N23" t="n">
         <v>751.8584478193516</v>
@@ -36434,13 +36434,13 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>261.3487819164541</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
@@ -36449,10 +36449,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -36683,16 +36683,16 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>463.9858252288377</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>98.78558167418976</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36838,7 +36838,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902952</v>
       </c>
       <c r="N29" t="n">
         <v>751.8584478193516</v>
@@ -36908,13 +36908,13 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>188.9220579561604</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
@@ -36923,16 +36923,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>395.0475418999253</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37090,7 +37090,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,16 +37145,16 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
-        <v>128.8146617507074</v>
+        <v>303.8786972770459</v>
       </c>
       <c r="N33" t="n">
         <v>633.9373369238452</v>
@@ -37163,10 +37163,10 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37379,7 +37379,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
@@ -37388,25 +37388,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>101.8925903961643</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
         <v>633.9373369238454</v>
       </c>
       <c r="O36" t="n">
-        <v>557.48457599928</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37537,34 +37537,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L38" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O38" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37622,28 +37622,28 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>409.1088842875403</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>25.73094315394662</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,22 +37698,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K40" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37774,34 +37774,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L41" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O41" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37853,34 +37853,34 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>25.73094315394662</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,22 +37935,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K43" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38011,34 +38011,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L44" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462675</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O44" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38090,34 +38090,34 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>25.73094315394662</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,22 +38172,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K46" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>
